--- a/Linear/Standard_Deviation and Max.xlsx
+++ b/Linear/Standard_Deviation and Max.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Backlash" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cartesian Velocity - Linear" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Linear/Standard_Deviation and Max.xlsx
+++ b/Linear/Standard_Deviation and Max.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cartesian Velocity - Linear" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vertical" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Updated Lin" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,4 +486,96 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Vertical</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04829447106908376</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3646477683989286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Updated Lin (Z)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04829447106908376</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3646477683989286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Linear/Standard_Deviation and Max.xlsx
+++ b/Linear/Standard_Deviation and Max.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04829447106908376</v>
+        <v>0.1611065411109286</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3646477683989286</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Linear/Standard_Deviation and Max.xlsx
+++ b/Linear/Standard_Deviation and Max.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0.08008883986714697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0685265997105669</v>
+        <v>0.06852659971056689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0720800271849142</v>
+        <v>0.07208002718491419</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03338962121225971</v>
+        <v>0.03338962121225973</v>
       </c>
     </row>
     <row r="4">
@@ -471,16 +471,35 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5080253236132923</v>
+        <v>0.5080253236132926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4323110732532491</v>
+        <v>0.432311073253249</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4130668033357449</v>
+        <v>0.4130668033357447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.37089046218683</v>
+        <v>0.3708904621868302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09519282655710233</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09110913624555038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09406766988253523</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.013976850285178</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +545,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3646477683989286</v>
+        <v>0.3646477683989287</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01951392687395583</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +604,16 @@
         <v>0.9999999999999999</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1431671287973773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Linear/Standard_Deviation and Max.xlsx
+++ b/Linear/Standard_Deviation and Max.xlsx
@@ -452,16 +452,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08008883986714697</v>
+        <v>0.3136197481143909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06852659971056689</v>
+        <v>0.3516260814693335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07208002718491419</v>
+        <v>0.325169621440986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03338962121225973</v>
+        <v>0.2641859620991784</v>
       </c>
     </row>
     <row r="4">
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5080253236132926</v>
+        <v>0.9921422580253202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.432311073253249</v>
+        <v>0.999768409175526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4130668033357447</v>
+        <v>0.9951598255184436</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3708904621868302</v>
+        <v>0.9918503643734413</v>
       </c>
     </row>
     <row r="5">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09519282655710233</v>
+        <v>0.4416510353234783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09110913624555038</v>
+        <v>0.529979252502416</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09406766988253523</v>
+        <v>0.6418049323436407</v>
       </c>
       <c r="E5" t="n">
-        <v>0.013976850285178</v>
+        <v>0.8334310143006941</v>
       </c>
     </row>
   </sheetData>

--- a/Linear/Standard_Deviation and Max.xlsx
+++ b/Linear/Standard_Deviation and Max.xlsx
@@ -452,16 +452,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3136197481143909</v>
+        <v>0.00383111640114036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3516260814693335</v>
+        <v>0.006255949698204192</v>
       </c>
       <c r="D3" t="n">
-        <v>0.325169621440986</v>
+        <v>0.01945997593335323</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2641859620991784</v>
+        <v>0.01022964780240761</v>
       </c>
     </row>
     <row r="4">
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9921422580253202</v>
+        <v>0.01663162550035524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999768409175526</v>
+        <v>0.02773520515886496</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9951598255184436</v>
+        <v>0.07739125956626192</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9918503643734413</v>
+        <v>0.06413217448647635</v>
       </c>
     </row>
     <row r="5">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4416510353234783</v>
+        <v>0.006196401264470401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.529979252502416</v>
+        <v>0.009455005521889643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6418049323436407</v>
+        <v>0.0263313692048925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8334310143006941</v>
+        <v>0.01599737928832565</v>
       </c>
     </row>
   </sheetData>
